--- a/simple_with_OPF/old/K.xlsx
+++ b/simple_with_OPF/old/K.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\simple_with_OPF\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF97D68E-1204-4842-A63C-4A333D18E0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A411AC59-E011-4F7C-88B6-9F66E91DC2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-11340" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>1€ = x $</t>
   </si>
   <si>
-    <t>30 years O&amp;M $/kW</t>
-  </si>
-  <si>
     <t>Fixed O&amp;M + CAPEX $/kW</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>$/MWh</t>
+  </si>
+  <si>
+    <t>20 years O&amp;M $/kW</t>
   </si>
 </sst>
 </file>
@@ -402,16 +402,16 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -443,7 +443,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -457,7 +457,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -474,7 +474,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -491,9 +491,9 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <f>B6*20</f>
@@ -508,9 +508,9 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <f>B7+B5</f>
@@ -525,24 +525,24 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15">
         <f>C14*H2</f>
         <v>20.8</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
